--- a/02Controlled library（受控库）/03Support（支持类）/01CM（配置管理）/TouristService_基线状态报告.xlsx
+++ b/02Controlled library（受控库）/03Support（支持类）/01CM（配置管理）/TouristService_基线状态报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>基线状态报告</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Rational RequisitePro工件</t>
   </si>
   <si>
-    <t>该工件包括了需求跟踪矩阵(V1.0)、用例实现规约(V1.0)</t>
+    <t>该工件包括了用例实现规约(V1.0)</t>
   </si>
   <si>
     <t>设计基线</t>
@@ -88,9 +88,6 @@
     <t>用例实现规约（Rational RequisitePro工件）</t>
   </si>
   <si>
-    <t>需求跟踪矩阵（Rational RequisitePro工件）</t>
-  </si>
-  <si>
     <t>界面原型</t>
   </si>
   <si>
@@ -119,15 +116,6 @@
   </si>
   <si>
     <t>系统测试用例</t>
-  </si>
-  <si>
-    <t>产品集成环境检查单</t>
-  </si>
-  <si>
-    <t>产品试运行计划</t>
-  </si>
-  <si>
-    <t>用户手册</t>
   </si>
   <si>
     <t>源代码（程序）</t>
@@ -174,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -246,7 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,14 +248,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,16 +294,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,90 +370,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -410,31 +398,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,151 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,6 +1040,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,6 +1068,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1085,63 +1130,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1150,149 +1138,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,12 +1421,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1925,10 +1907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1972,7 +1954,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A3" s="7" t="s">
@@ -1998,7 +1980,7 @@
       <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="88">
+      <c r="J3" s="86">
         <v>43306</v>
       </c>
     </row>
@@ -2024,7 +2006,7 @@
       <c r="I4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="87"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A5" s="14" t="s">
@@ -2043,10 +2025,10 @@
         <v>17</v>
       </c>
       <c r="H5" s="21">
-        <v>43285</v>
+        <v>43306</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="44.25" customHeight="1" spans="1:10">
       <c r="A6" s="16"/>
@@ -2061,12 +2043,12 @@
         <v>17</v>
       </c>
       <c r="H6" s="26">
-        <v>43288</v>
-      </c>
-      <c r="I6" s="91" t="s">
+        <v>43306</v>
+      </c>
+      <c r="I6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="92"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A7" s="27" t="s">
@@ -2085,12 +2067,12 @@
         <v>17</v>
       </c>
       <c r="H7" s="26">
-        <v>43294</v>
-      </c>
-      <c r="I7" s="91" t="s">
+        <v>43315</v>
+      </c>
+      <c r="I7" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="93"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="24.75" customHeight="1" spans="1:10">
       <c r="A8" s="33"/>
@@ -2105,14 +2087,14 @@
         <v>17</v>
       </c>
       <c r="H8" s="26">
-        <v>43294</v>
-      </c>
-      <c r="I8" s="91" t="s">
+        <v>43315</v>
+      </c>
+      <c r="I8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="93"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="24.75" customHeight="1" spans="1:10">
+      <c r="J8" s="91"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
@@ -2125,30 +2107,28 @@
         <v>17</v>
       </c>
       <c r="H9" s="26">
-        <v>43294</v>
-      </c>
-      <c r="I9" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="93"/>
+        <v>43315</v>
+      </c>
+      <c r="I9" s="89"/>
+      <c r="J9" s="91"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="26">
-        <v>43294</v>
-      </c>
-      <c r="I10" s="91"/>
-      <c r="J10" s="93"/>
+        <v>43315</v>
+      </c>
+      <c r="I10" s="89"/>
+      <c r="J10" s="91"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A11" s="33"/>
@@ -2163,28 +2143,28 @@
         <v>17</v>
       </c>
       <c r="H11" s="26">
-        <v>43294</v>
-      </c>
-      <c r="I11" s="91"/>
-      <c r="J11" s="93"/>
+        <v>43315</v>
+      </c>
+      <c r="I11" s="89"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A12" s="33"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
       <c r="D12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="26">
-        <v>43294</v>
-      </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="93"/>
+        <v>43315</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="91"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A13" s="39"/>
@@ -2193,396 +2173,324 @@
       <c r="D13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="26">
-        <v>43294</v>
-      </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="93"/>
+        <v>43315</v>
+      </c>
+      <c r="I13" s="89"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A14" s="39"/>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="26">
-        <v>43294</v>
-      </c>
-      <c r="I14" s="91"/>
-      <c r="J14" s="93"/>
+        <v>43315</v>
+      </c>
+      <c r="I14" s="89"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A15" s="39"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="26">
-        <v>43294</v>
-      </c>
-      <c r="I15" s="91"/>
+        <v>43329</v>
+      </c>
+      <c r="I15" s="92" t="s">
+        <v>32</v>
+      </c>
       <c r="J15" s="93"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="45"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="26">
         <v>43329</v>
       </c>
-      <c r="I16" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="95"/>
+      <c r="I16" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="93"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A17" s="33"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
-      <c r="D17" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="D17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="26">
         <v>43329</v>
       </c>
-      <c r="I17" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="95"/>
+      <c r="I17" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="93"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A18" s="33"/>
       <c r="B18" s="46"/>
       <c r="C18" s="47"/>
-      <c r="D18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
+      <c r="D18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="26">
         <v>43329</v>
       </c>
-      <c r="I18" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="95"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="93"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A19" s="33"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="36" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="32" t="s">
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="55">
         <v>43329</v>
       </c>
       <c r="I19" s="94"/>
       <c r="J19" s="95"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A20" s="33"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="36" t="s">
+    <row r="20" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A21" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="26">
-        <v>43329</v>
-      </c>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A21" s="33"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="36" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="96"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A22" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="26">
-        <v>43329</v>
-      </c>
-      <c r="I21" s="94"/>
-      <c r="J21" s="95"/>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A22" s="33"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="36" t="s">
+      <c r="B22" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="26">
-        <v>43329</v>
-      </c>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53" t="s">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="57">
-        <v>43329</v>
-      </c>
-      <c r="I23" s="96"/>
-      <c r="J23" s="97"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="97"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A24" s="66">
+        <v>1</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="100"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A25" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="98"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A26" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="62" t="s">
+      <c r="A25" s="66">
+        <v>2</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="72"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="100"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:10">
+      <c r="A26" s="73">
+        <v>3</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A28" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="62" t="s">
+      <c r="B28" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="99"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="104"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:10">
+      <c r="A29" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="62" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="J29" s="105"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:10">
+      <c r="A30" s="82"/>
+      <c r="B30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="100" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A28" s="68">
-        <v>1</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A29" s="68">
-        <v>2</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="102"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A30" s="75">
-        <v>3</v>
-      </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="103" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="104" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A32" s="81" t="s">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="J30" s="105"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A31" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="106"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:10">
-      <c r="A33" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="J33" s="107"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:10">
-      <c r="A34" s="84"/>
-      <c r="B34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="J34" s="107"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A35" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="108"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="53">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B3:C3"/>
@@ -2597,12 +2505,12 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="D16:F16"/>
@@ -2613,35 +2521,29 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C15"/>
-    <mergeCell ref="B16:C23"/>
+    <mergeCell ref="B7:C14"/>
+    <mergeCell ref="B15:C19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
